--- a/resultados_modelos.xlsx
+++ b/resultados_modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Master\Segundo\Segundo cuatri\Aprendizaje Automático\Trabajo 1\Github\Trabajo_1_Sergio_Diego\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0A42F1-98CB-4980-B48D-5BE344869F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926CC49D-1250-4E46-ADBB-12C87AFF8E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas_las_pruebas" sheetId="1" r:id="rId1"/>
@@ -644,13 +644,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F352" sqref="F352"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -82591,7 +82594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
